--- a/Reports/heart/heart_multifairgan_10_05.xlsx
+++ b/Reports/heart/heart_multifairgan_10_05.xlsx
@@ -442,57 +442,57 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0095</v>
+        <v>-0.0086</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0524</v>
+        <v>-0.0086</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.107</v>
+        <v>0.9829</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.8333</v>
+        <v>0.584</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.1304</v>
+        <v>-0.2308</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.7433999999999999</v>
+        <v>0.5714</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.1343</v>
+        <v>0.0653</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.3534</v>
+        <v>1.1648</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.0833</v>
+        <v>-0.2205</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.0029</v>
+        <v>0.0107</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.6087</v>
+        <v>0.662</v>
       </c>
     </row>
     <row r="13">
